--- a/espn_scrapper/IPL/Kings XI Punjab/Prabhsimran Singh .xlsx
+++ b/espn_scrapper/IPL/Kings XI Punjab/Prabhsimran Singh .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,9 +507,44 @@
         <v>137.50</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C4" t="str">
+        <v>KKR won by 2 runs</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">Prabhsimran Singh </v>
+      </c>
+      <c r="G4" t="str">
+        <v>4</v>
+      </c>
+      <c r="H4" t="str">
+        <v>7</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>57.14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>